--- a/avance-template.xlsx
+++ b/avance-template.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="281">
   <si>
     <t xml:space="preserve">Avance AOUT</t>
   </si>
@@ -860,6 +860,9 @@
   </si>
   <si>
     <t xml:space="preserve">NY MANDA Sarobidy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M-SAR</t>
   </si>
 </sst>
 </file>
@@ -1029,7 +1032,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1102,10 +1105,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="166" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1130,8 +1129,8 @@
   </sheetPr>
   <dimension ref="A1:E142"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A130" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D147" activeCellId="0" sqref="D147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2543,12 +2542,14 @@
       <c r="A141" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="B141" s="18"/>
+      <c r="B141" s="17" t="s">
+        <v>280</v>
+      </c>
       <c r="C141" s="16"/>
       <c r="D141" s="10"/>
     </row>
     <row r="142" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C142" s="19" t="n">
+      <c r="C142" s="18" t="n">
         <f aca="false">SUM(C3:C141)</f>
         <v>0</v>
       </c>
